--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_270.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_270.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,427 +488,428 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(44.859274, 49.758684)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.280000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:01:05.200000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.1334681496461072</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
@@ -911,294 +917,255 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.52, 13.74)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1357466063348416</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'D', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'D', 'G', 'A']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.10941, 21.25263)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(28.230226, 37.483378)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
